--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf22-Fgfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf22-Fgfr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Fgf22</t>
+  </si>
+  <si>
+    <t>Fgfr2</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Fgf22</t>
-  </si>
-  <si>
-    <t>Fgfr2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.028883</v>
+        <v>0.2909523333333333</v>
       </c>
       <c r="H2">
-        <v>0.086649</v>
+        <v>0.872857</v>
       </c>
       <c r="I2">
-        <v>0.05020240522412316</v>
+        <v>0.68337437121998</v>
       </c>
       <c r="J2">
-        <v>0.05020240522412316</v>
+        <v>0.68337437121998</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3777296666666667</v>
+        <v>0.106124</v>
       </c>
       <c r="N2">
-        <v>1.133189</v>
+        <v>0.318372</v>
       </c>
       <c r="O2">
-        <v>0.2121489992374768</v>
+        <v>0.08094716512538251</v>
       </c>
       <c r="P2">
-        <v>0.2121489992374768</v>
+        <v>0.08094716512538253</v>
       </c>
       <c r="Q2">
-        <v>0.01090996596233334</v>
+        <v>0.03087702542266666</v>
       </c>
       <c r="R2">
-        <v>0.098189693661</v>
+        <v>0.277893228804</v>
       </c>
       <c r="S2">
-        <v>0.01065039002761201</v>
+        <v>0.05531721806959817</v>
       </c>
       <c r="T2">
-        <v>0.01065039002761201</v>
+        <v>0.05531721806959818</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.028883</v>
+        <v>0.2909523333333333</v>
       </c>
       <c r="H3">
-        <v>0.086649</v>
+        <v>0.872857</v>
       </c>
       <c r="I3">
-        <v>0.05020240522412316</v>
+        <v>0.68337437121998</v>
       </c>
       <c r="J3">
-        <v>0.05020240522412316</v>
+        <v>0.68337437121998</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>3.276869</v>
       </c>
       <c r="O3">
-        <v>0.6134761976883921</v>
+        <v>0.8331551016962769</v>
       </c>
       <c r="P3">
-        <v>0.6134761976883921</v>
+        <v>0.833155101696277</v>
       </c>
       <c r="Q3">
-        <v>0.03154860244233333</v>
+        <v>0.3178042271925555</v>
       </c>
       <c r="R3">
-        <v>0.283937421981</v>
+        <v>2.860238044733</v>
       </c>
       <c r="S3">
-        <v>0.03079798067170695</v>
+        <v>0.5693568437504117</v>
       </c>
       <c r="T3">
-        <v>0.03079798067170695</v>
+        <v>0.5693568437504118</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.028883</v>
+        <v>0.2909523333333333</v>
       </c>
       <c r="H4">
-        <v>0.086649</v>
+        <v>0.872857</v>
       </c>
       <c r="I4">
-        <v>0.05020240522412316</v>
+        <v>0.68337437121998</v>
       </c>
       <c r="J4">
-        <v>0.05020240522412316</v>
+        <v>0.68337437121998</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3104730000000001</v>
+        <v>0.1126143333333333</v>
       </c>
       <c r="N4">
-        <v>0.9314190000000001</v>
+        <v>0.337843</v>
       </c>
       <c r="O4">
-        <v>0.174374803074131</v>
+        <v>0.08589773317834044</v>
       </c>
       <c r="P4">
-        <v>0.174374803074131</v>
+        <v>0.08589773317834046</v>
       </c>
       <c r="Q4">
-        <v>0.008967391659000002</v>
+        <v>0.03276540305011111</v>
       </c>
       <c r="R4">
-        <v>0.08070652493100001</v>
+        <v>0.294888627451</v>
       </c>
       <c r="S4">
-        <v>0.008754034524804203</v>
+        <v>0.05870030939997001</v>
       </c>
       <c r="T4">
-        <v>0.008754034524804201</v>
+        <v>0.05870030939997003</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.2909523333333333</v>
+        <v>0.07573966666666666</v>
       </c>
       <c r="H5">
-        <v>0.872857</v>
+        <v>0.227219</v>
       </c>
       <c r="I5">
-        <v>0.5057129432158762</v>
+        <v>0.1778935624669707</v>
       </c>
       <c r="J5">
-        <v>0.5057129432158762</v>
+        <v>0.1778935624669707</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3777296666666667</v>
+        <v>0.106124</v>
       </c>
       <c r="N5">
-        <v>1.133189</v>
+        <v>0.318372</v>
       </c>
       <c r="O5">
-        <v>0.2121489992374768</v>
+        <v>0.08094716512538251</v>
       </c>
       <c r="P5">
-        <v>0.2121489992374768</v>
+        <v>0.08094716512538253</v>
       </c>
       <c r="Q5">
-        <v>0.1099013278858889</v>
+        <v>0.008037796385333333</v>
       </c>
       <c r="R5">
-        <v>0.989111950973</v>
+        <v>0.072340167468</v>
       </c>
       <c r="S5">
-        <v>0.1072864948046871</v>
+        <v>0.01439997957575643</v>
       </c>
       <c r="T5">
-        <v>0.1072864948046871</v>
+        <v>0.01439997957575643</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,31 +770,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.2909523333333333</v>
+        <v>0.07573966666666666</v>
       </c>
       <c r="H6">
-        <v>0.872857</v>
+        <v>0.227219</v>
       </c>
       <c r="I6">
-        <v>0.5057129432158762</v>
+        <v>0.1778935624669707</v>
       </c>
       <c r="J6">
-        <v>0.5057129432158762</v>
+        <v>0.1778935624669707</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,22 +809,22 @@
         <v>3.276869</v>
       </c>
       <c r="O6">
-        <v>0.6134761976883921</v>
+        <v>0.8331551016962769</v>
       </c>
       <c r="P6">
-        <v>0.6134761976883921</v>
+        <v>0.833155101696277</v>
       </c>
       <c r="Q6">
-        <v>0.3178042271925555</v>
+        <v>0.08272965525677776</v>
       </c>
       <c r="R6">
-        <v>2.860238044733</v>
+        <v>0.744566897311</v>
       </c>
       <c r="S6">
-        <v>0.3102428535258815</v>
+        <v>0.148212929128282</v>
       </c>
       <c r="T6">
-        <v>0.3102428535258815</v>
+        <v>0.148212929128282</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,31 +832,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.2909523333333333</v>
+        <v>0.07573966666666666</v>
       </c>
       <c r="H7">
-        <v>0.872857</v>
+        <v>0.227219</v>
       </c>
       <c r="I7">
-        <v>0.5057129432158762</v>
+        <v>0.1778935624669707</v>
       </c>
       <c r="J7">
-        <v>0.5057129432158762</v>
+        <v>0.1778935624669707</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3104730000000001</v>
+        <v>0.1126143333333333</v>
       </c>
       <c r="N7">
-        <v>0.9314190000000001</v>
+        <v>0.337843</v>
       </c>
       <c r="O7">
-        <v>0.174374803074131</v>
+        <v>0.08589773317834044</v>
       </c>
       <c r="P7">
-        <v>0.174374803074131</v>
+        <v>0.08589773317834046</v>
       </c>
       <c r="Q7">
-        <v>0.090332843787</v>
+        <v>0.008529372068555556</v>
       </c>
       <c r="R7">
-        <v>0.812995594083</v>
+        <v>0.076764348617</v>
       </c>
       <c r="S7">
-        <v>0.08818359488530762</v>
+        <v>0.01528065376293229</v>
       </c>
       <c r="T7">
-        <v>0.08818359488530761</v>
+        <v>0.01528065376293229</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,13 +894,13 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -909,16 +909,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.160399</v>
+        <v>0.05906633333333333</v>
       </c>
       <c r="H8">
-        <v>0.481197</v>
+        <v>0.177199</v>
       </c>
       <c r="I8">
-        <v>0.2787942940672413</v>
+        <v>0.1387320663130493</v>
       </c>
       <c r="J8">
-        <v>0.2787942940672413</v>
+        <v>0.1387320663130493</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.3777296666666667</v>
+        <v>0.106124</v>
       </c>
       <c r="N8">
-        <v>1.133189</v>
+        <v>0.318372</v>
       </c>
       <c r="O8">
-        <v>0.2121489992374768</v>
+        <v>0.08094716512538251</v>
       </c>
       <c r="P8">
-        <v>0.2121489992374768</v>
+        <v>0.08094716512538253</v>
       </c>
       <c r="Q8">
-        <v>0.06058746080366668</v>
+        <v>0.006268355558666667</v>
       </c>
       <c r="R8">
-        <v>0.5452871472330001</v>
+        <v>0.056415200028</v>
       </c>
       <c r="S8">
-        <v>0.05914593047948408</v>
+        <v>0.01122996748002792</v>
       </c>
       <c r="T8">
-        <v>0.05914593047948407</v>
+        <v>0.01122996748002792</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.160399</v>
+        <v>0.05906633333333333</v>
       </c>
       <c r="H9">
-        <v>0.481197</v>
+        <v>0.177199</v>
       </c>
       <c r="I9">
-        <v>0.2787942940672413</v>
+        <v>0.1387320663130493</v>
       </c>
       <c r="J9">
-        <v>0.2787942940672413</v>
+        <v>0.1387320663130493</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,22 +995,22 @@
         <v>3.276869</v>
       </c>
       <c r="O9">
-        <v>0.6134761976883921</v>
+        <v>0.8331551016962769</v>
       </c>
       <c r="P9">
-        <v>0.6134761976883921</v>
+        <v>0.833155101696277</v>
       </c>
       <c r="Q9">
-        <v>0.1752021702436667</v>
+        <v>0.06451754554788888</v>
       </c>
       <c r="R9">
-        <v>1.576819532193</v>
+        <v>0.580657909931</v>
       </c>
       <c r="S9">
-        <v>0.1710336634615907</v>
+        <v>0.1155853288175832</v>
       </c>
       <c r="T9">
-        <v>0.1710336634615907</v>
+        <v>0.1155853288175832</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1033,16 +1033,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.160399</v>
+        <v>0.05906633333333333</v>
       </c>
       <c r="H10">
-        <v>0.481197</v>
+        <v>0.177199</v>
       </c>
       <c r="I10">
-        <v>0.2787942940672413</v>
+        <v>0.1387320663130493</v>
       </c>
       <c r="J10">
-        <v>0.2787942940672413</v>
+        <v>0.1387320663130493</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,214 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3104730000000001</v>
+        <v>0.1126143333333333</v>
       </c>
       <c r="N10">
-        <v>0.9314190000000001</v>
+        <v>0.337843</v>
       </c>
       <c r="O10">
-        <v>0.174374803074131</v>
+        <v>0.08589773317834044</v>
       </c>
       <c r="P10">
-        <v>0.174374803074131</v>
+        <v>0.08589773317834046</v>
       </c>
       <c r="Q10">
-        <v>0.04979955872700002</v>
+        <v>0.006651715750777778</v>
       </c>
       <c r="R10">
-        <v>0.4481960285430001</v>
+        <v>0.059865441757</v>
       </c>
       <c r="S10">
-        <v>0.04861470012616658</v>
+        <v>0.01191677001543814</v>
       </c>
       <c r="T10">
-        <v>0.04861470012616657</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.09509666666666666</v>
-      </c>
-      <c r="H11">
-        <v>0.28529</v>
-      </c>
-      <c r="I11">
-        <v>0.1652903574927592</v>
-      </c>
-      <c r="J11">
-        <v>0.1652903574927592</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.3777296666666667</v>
-      </c>
-      <c r="N11">
-        <v>1.133189</v>
-      </c>
-      <c r="O11">
-        <v>0.2121489992374768</v>
-      </c>
-      <c r="P11">
-        <v>0.2121489992374768</v>
-      </c>
-      <c r="Q11">
-        <v>0.03592083220111111</v>
-      </c>
-      <c r="R11">
-        <v>0.32328748981</v>
-      </c>
-      <c r="S11">
-        <v>0.03506618392569365</v>
-      </c>
-      <c r="T11">
-        <v>0.03506618392569365</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.09509666666666666</v>
-      </c>
-      <c r="H12">
-        <v>0.28529</v>
-      </c>
-      <c r="I12">
-        <v>0.1652903574927592</v>
-      </c>
-      <c r="J12">
-        <v>0.1652903574927592</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>1.092289666666667</v>
-      </c>
-      <c r="N12">
-        <v>3.276869</v>
-      </c>
-      <c r="O12">
-        <v>0.6134761976883921</v>
-      </c>
-      <c r="P12">
-        <v>0.6134761976883921</v>
-      </c>
-      <c r="Q12">
-        <v>0.1038731063344444</v>
-      </c>
-      <c r="R12">
-        <v>0.93485795701</v>
-      </c>
-      <c r="S12">
-        <v>0.101401700029213</v>
-      </c>
-      <c r="T12">
-        <v>0.101401700029213</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.09509666666666666</v>
-      </c>
-      <c r="H13">
-        <v>0.28529</v>
-      </c>
-      <c r="I13">
-        <v>0.1652903574927592</v>
-      </c>
-      <c r="J13">
-        <v>0.1652903574927592</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.3104730000000001</v>
-      </c>
-      <c r="N13">
-        <v>0.9314190000000001</v>
-      </c>
-      <c r="O13">
-        <v>0.174374803074131</v>
-      </c>
-      <c r="P13">
-        <v>0.174374803074131</v>
-      </c>
-      <c r="Q13">
-        <v>0.02952494739</v>
-      </c>
-      <c r="R13">
-        <v>0.26572452651</v>
-      </c>
-      <c r="S13">
-        <v>0.02882247353785261</v>
-      </c>
-      <c r="T13">
-        <v>0.0288224735378526</v>
+        <v>0.01191677001543814</v>
       </c>
     </row>
   </sheetData>
